--- a/Data/Members List.xlsx
+++ b/Data/Members List.xlsx
@@ -1,40 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitish\Documents\GitHub\RMI-NITT.github.io\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD5E99-4A33-45D6-8C9A-C168512F1F3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment authorId="0" ref="C42">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>9629925261</t>
-        </r>
+        <t xml:space="preserve">9629925261</t>
       </text>
     </comment>
   </commentList>
@@ -42,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="648">
   <si>
     <t>Name</t>
   </si>
@@ -1352,9 +1336,6 @@
     <t>Adarsh Jagan S</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>(+1)2403026064,(+91)9500145530</t>
   </si>
   <si>
@@ -1490,6 +1471,21 @@
     <t>Nikesh Elango</t>
   </si>
   <si>
+    <t>(+91)9176802905</t>
+  </si>
+  <si>
+    <t>nikesh5050@gmail.com</t>
+  </si>
+  <si>
+    <t>Embedded systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okulo aerospace </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikesh5050</t>
+  </si>
+  <si>
     <t>Haresh K Miriyala</t>
   </si>
   <si>
@@ -1653,9 +1649,6 @@
   </si>
   <si>
     <t>rishikeshsampat993@gmail.com</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
   </si>
   <si>
     <t>Aerospace Engineering, Turbulent Combustion</t>
@@ -1982,162 +1975,126 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\+##\-##########"/>
-    <numFmt numFmtId="165" formatCode="####\-#######"/>
+    <numFmt numFmtId="164" formatCode="+##-##########"/>
+    <numFmt numFmtId="165" formatCode="####-#######"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2146,7 +2103,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2174,586 +2131,272 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="73">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="10" width="51.5703125" customWidth="1"/>
-    <col min="11" max="12" width="35.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="27.71"/>
+    <col customWidth="1" min="2" max="2" width="32.86"/>
+    <col customWidth="1" min="3" max="3" width="35.71"/>
+    <col customWidth="1" min="4" max="4" width="33.71"/>
+    <col customWidth="1" min="5" max="5" width="18.29"/>
+    <col customWidth="1" min="6" max="6" width="30.14"/>
+    <col customWidth="1" min="7" max="7" width="41.86"/>
+    <col customWidth="1" min="8" max="8" width="30.0"/>
+    <col customWidth="1" min="9" max="10" width="51.57"/>
+    <col customWidth="1" min="11" max="12" width="35.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2829,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" outlineLevel="1">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -2853,7 +2496,7 @@
       </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" outlineLevel="1">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2881,7 +2524,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" outlineLevel="1">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -2909,7 +2552,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" outlineLevel="1">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -2931,7 +2574,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" outlineLevel="1">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2959,7 +2602,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" outlineLevel="1">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
@@ -2987,7 +2630,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" outlineLevel="1">
       <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
@@ -3013,7 +2656,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" outlineLevel="1">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
@@ -3041,7 +2684,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" outlineLevel="1">
       <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
@@ -3067,7 +2710,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" outlineLevel="1">
       <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
@@ -3091,7 +2734,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" outlineLevel="1">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
@@ -3115,7 +2758,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" outlineLevel="1">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -3143,7 +2786,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" outlineLevel="1">
       <c r="A15" s="16" t="s">
         <v>80</v>
       </c>
@@ -3169,7 +2812,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" outlineLevel="1">
       <c r="A16" s="18" t="s">
         <v>85</v>
       </c>
@@ -3199,7 +2842,7 @@
       </c>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -3237,7 +2880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" outlineLevel="1">
       <c r="A18" s="25" t="s">
         <v>93</v>
       </c>
@@ -3265,7 +2908,7 @@
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" outlineLevel="1">
       <c r="A19" s="25" t="s">
         <v>99</v>
       </c>
@@ -3293,7 +2936,7 @@
       </c>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" outlineLevel="1">
       <c r="A20" s="32" t="s">
         <v>105</v>
       </c>
@@ -3319,7 +2962,7 @@
       </c>
       <c r="L20" s="33"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" outlineLevel="1">
       <c r="A21" s="32" t="s">
         <v>110</v>
       </c>
@@ -3347,7 +2990,7 @@
       </c>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" outlineLevel="1">
       <c r="A22" s="36" t="s">
         <v>116</v>
       </c>
@@ -3377,7 +3020,7 @@
       </c>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" outlineLevel="1">
       <c r="A23" s="36" t="s">
         <v>123</v>
       </c>
@@ -3407,7 +3050,7 @@
       </c>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" outlineLevel="1">
       <c r="A24" s="32" t="s">
         <v>130</v>
       </c>
@@ -3435,7 +3078,7 @@
       </c>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" outlineLevel="1">
       <c r="A25" s="36" t="s">
         <v>136</v>
       </c>
@@ -3463,7 +3106,7 @@
       </c>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" outlineLevel="1">
       <c r="A26" s="32" t="s">
         <v>141</v>
       </c>
@@ -3487,7 +3130,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" outlineLevel="1">
       <c r="A27" s="32" t="s">
         <v>145</v>
       </c>
@@ -3517,7 +3160,7 @@
       </c>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" outlineLevel="1">
       <c r="A28" s="32" t="s">
         <v>151</v>
       </c>
@@ -3543,7 +3186,7 @@
       </c>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" outlineLevel="1">
       <c r="A29" s="32" t="s">
         <v>156</v>
       </c>
@@ -3571,7 +3214,7 @@
       </c>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" outlineLevel="1">
       <c r="A30" s="32" t="s">
         <v>162</v>
       </c>
@@ -3599,7 +3242,7 @@
       </c>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" outlineLevel="1">
       <c r="A31" s="37" t="s">
         <v>168</v>
       </c>
@@ -3623,7 +3266,7 @@
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
     </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="5" t="s">
         <v>171</v>
       </c>
@@ -3661,7 +3304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" outlineLevel="1">
       <c r="A33" s="40" t="s">
         <v>172</v>
       </c>
@@ -3689,7 +3332,7 @@
       </c>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" outlineLevel="1">
       <c r="A34" s="32" t="s">
         <v>178</v>
       </c>
@@ -3717,7 +3360,7 @@
       </c>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" outlineLevel="1">
       <c r="A35" s="32" t="s">
         <v>184</v>
       </c>
@@ -3747,7 +3390,7 @@
       </c>
       <c r="L35" s="29"/>
     </row>
-    <row r="36" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" outlineLevel="1">
       <c r="A36" s="7" t="s">
         <v>191</v>
       </c>
@@ -3777,7 +3420,7 @@
       </c>
       <c r="L36" s="44"/>
     </row>
-    <row r="37" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" outlineLevel="1">
       <c r="A37" s="7" t="s">
         <v>198</v>
       </c>
@@ -3807,7 +3450,7 @@
       </c>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" outlineLevel="1">
       <c r="A38" s="32" t="s">
         <v>205</v>
       </c>
@@ -3833,7 +3476,7 @@
       </c>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" outlineLevel="1">
       <c r="A39" s="32" t="s">
         <v>210</v>
       </c>
@@ -3861,7 +3504,7 @@
       </c>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" outlineLevel="1">
       <c r="A40" s="32" t="s">
         <v>216</v>
       </c>
@@ -3887,7 +3530,7 @@
       </c>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" outlineLevel="1">
       <c r="A41" s="32" t="s">
         <v>221</v>
       </c>
@@ -3917,7 +3560,7 @@
       </c>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" outlineLevel="1">
       <c r="A42" s="32" t="s">
         <v>228</v>
       </c>
@@ -3945,7 +3588,7 @@
       </c>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" outlineLevel="1">
       <c r="A43" s="18" t="s">
         <v>234</v>
       </c>
@@ -3969,7 +3612,7 @@
       <c r="K43" s="46"/>
       <c r="L43" s="46"/>
     </row>
-    <row r="44" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" outlineLevel="1">
       <c r="A44" s="18" t="s">
         <v>237</v>
       </c>
@@ -3993,7 +3636,7 @@
       <c r="K44" s="47"/>
       <c r="L44" s="47"/>
     </row>
-    <row r="45" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" outlineLevel="1">
       <c r="A45" s="48" t="s">
         <v>240</v>
       </c>
@@ -4019,7 +3662,7 @@
       </c>
       <c r="L45" s="46"/>
     </row>
-    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" s="5" t="s">
         <v>244</v>
       </c>
@@ -4057,7 +3700,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" outlineLevel="1">
       <c r="A47" s="50" t="s">
         <v>245</v>
       </c>
@@ -4089,7 +3732,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" outlineLevel="1">
       <c r="A48" s="50" t="s">
         <v>252</v>
       </c>
@@ -4117,7 +3760,7 @@
       <c r="K48" s="53"/>
       <c r="L48" s="53"/>
     </row>
-    <row r="49" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" outlineLevel="1">
       <c r="A49" s="54" t="s">
         <v>257</v>
       </c>
@@ -4153,7 +3796,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" outlineLevel="1">
       <c r="A50" s="54" t="s">
         <v>266</v>
       </c>
@@ -4189,7 +3832,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" outlineLevel="1">
       <c r="A51" s="50" t="s">
         <v>276</v>
       </c>
@@ -4221,7 +3864,7 @@
       </c>
       <c r="L51" s="53"/>
     </row>
-    <row r="52" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" outlineLevel="1">
       <c r="A52" s="50" t="s">
         <v>283</v>
       </c>
@@ -4249,7 +3892,7 @@
       <c r="K52" s="53"/>
       <c r="L52" s="53"/>
     </row>
-    <row r="53" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" outlineLevel="1">
       <c r="A53" s="36" t="s">
         <v>289</v>
       </c>
@@ -4283,7 +3926,7 @@
       </c>
       <c r="L53" s="33"/>
     </row>
-    <row r="54" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" outlineLevel="1">
       <c r="A54" s="50" t="s">
         <v>298</v>
       </c>
@@ -4317,7 +3960,7 @@
       </c>
       <c r="L54" s="26"/>
     </row>
-    <row r="55" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" outlineLevel="1">
       <c r="A55" s="54" t="s">
         <v>306</v>
       </c>
@@ -4345,7 +3988,7 @@
       </c>
       <c r="L55" s="53"/>
     </row>
-    <row r="56" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" outlineLevel="1">
       <c r="A56" s="50" t="s">
         <v>312</v>
       </c>
@@ -4373,7 +4016,7 @@
       <c r="K56" s="53"/>
       <c r="L56" s="53"/>
     </row>
-    <row r="57" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" outlineLevel="1">
       <c r="A57" s="40" t="s">
         <v>317</v>
       </c>
@@ -4399,7 +4042,7 @@
       </c>
       <c r="L57" s="53"/>
     </row>
-    <row r="58" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" outlineLevel="1">
       <c r="A58" s="40" t="s">
         <v>322</v>
       </c>
@@ -4427,7 +4070,7 @@
       </c>
       <c r="L58" s="53"/>
     </row>
-    <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" s="5" t="s">
         <v>327</v>
       </c>
@@ -4465,7 +4108,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" outlineLevel="1">
       <c r="A60" s="50" t="s">
         <v>328</v>
       </c>
@@ -4499,7 +4142,7 @@
       </c>
       <c r="L60" s="26"/>
     </row>
-    <row r="61" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" outlineLevel="1">
       <c r="A61" s="50" t="s">
         <v>336</v>
       </c>
@@ -4515,7 +4158,7 @@
       <c r="E61" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="34" t="s">
         <v>339</v>
       </c>
       <c r="G61" s="41" t="s">
@@ -4523,7 +4166,7 @@
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="31" t="s">
         <v>341</v>
       </c>
       <c r="K61" s="35" t="s">
@@ -4531,7 +4174,7 @@
       </c>
       <c r="L61" s="33"/>
     </row>
-    <row r="62" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" outlineLevel="1">
       <c r="A62" s="50" t="s">
         <v>343</v>
       </c>
@@ -4555,7 +4198,7 @@
       <c r="K62" s="53"/>
       <c r="L62" s="53"/>
     </row>
-    <row r="63" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" outlineLevel="1">
       <c r="A63" s="50" t="s">
         <v>347</v>
       </c>
@@ -4589,7 +4232,7 @@
       </c>
       <c r="L63" s="53"/>
     </row>
-    <row r="64" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" outlineLevel="1">
       <c r="A64" s="50" t="s">
         <v>354</v>
       </c>
@@ -4621,41 +4264,41 @@
       </c>
       <c r="L64" s="26"/>
     </row>
-    <row r="65" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
+    <row r="65" outlineLevel="1">
+      <c r="A65" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="G65" s="61" t="s">
+      <c r="G65" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="I65" s="62" t="s">
+      <c r="I65" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="J65" s="59" t="s">
+      <c r="J65" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-    </row>
-    <row r="66" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+    </row>
+    <row r="66" outlineLevel="1">
       <c r="A66" s="54" t="s">
         <v>368</v>
       </c>
@@ -4683,7 +4326,7 @@
       <c r="K66" s="53"/>
       <c r="L66" s="53"/>
     </row>
-    <row r="67" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" outlineLevel="1">
       <c r="A67" s="54" t="s">
         <v>374</v>
       </c>
@@ -4707,7 +4350,7 @@
       <c r="K67" s="53"/>
       <c r="L67" s="53"/>
     </row>
-    <row r="68" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" outlineLevel="1">
       <c r="A68" s="54" t="s">
         <v>378</v>
       </c>
@@ -4733,7 +4376,7 @@
       <c r="K68" s="53"/>
       <c r="L68" s="53"/>
     </row>
-    <row r="69" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" outlineLevel="1">
       <c r="A69" s="50" t="s">
         <v>383</v>
       </c>
@@ -4759,7 +4402,7 @@
       <c r="K69" s="53"/>
       <c r="L69" s="53"/>
     </row>
-    <row r="70" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" outlineLevel="1">
       <c r="A70" s="54" t="s">
         <v>388</v>
       </c>
@@ -4795,7 +4438,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" outlineLevel="1">
       <c r="A71" s="54" t="s">
         <v>398</v>
       </c>
@@ -4817,7 +4460,7 @@
       <c r="K71" s="53"/>
       <c r="L71" s="53"/>
     </row>
-    <row r="72" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" outlineLevel="1">
       <c r="A72" s="50" t="s">
         <v>401</v>
       </c>
@@ -4847,7 +4490,7 @@
       </c>
       <c r="L72" s="26"/>
     </row>
-    <row r="73" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" s="5" t="s">
         <v>407</v>
       </c>
@@ -4885,7 +4528,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" outlineLevel="1">
       <c r="A74" s="54" t="s">
         <v>408</v>
       </c>
@@ -4921,7 +4564,7 @@
       </c>
       <c r="L74" s="26"/>
     </row>
-    <row r="75" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" outlineLevel="1">
       <c r="A75" s="54" t="s">
         <v>415</v>
       </c>
@@ -4951,7 +4594,7 @@
       </c>
       <c r="L75" s="33"/>
     </row>
-    <row r="76" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" outlineLevel="1">
       <c r="A76" s="54" t="s">
         <v>421</v>
       </c>
@@ -4981,14 +4624,14 @@
       <c r="K76" s="33"/>
       <c r="L76" s="33"/>
     </row>
-    <row r="77" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" outlineLevel="1">
       <c r="A77" s="50" t="s">
         <v>427</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="63" t="s">
         <v>428</v>
       </c>
       <c r="D77" s="52" t="s">
@@ -5015,25 +4658,25 @@
       </c>
       <c r="L77" s="26"/>
     </row>
-    <row r="78" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" outlineLevel="1">
       <c r="A78" s="54" t="s">
         <v>435</v>
       </c>
       <c r="B78" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="D78" s="52" t="s">
         <v>437</v>
-      </c>
-      <c r="D78" s="52" t="s">
-        <v>438</v>
       </c>
       <c r="E78" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
@@ -5041,14 +4684,14 @@
       <c r="K78" s="33"/>
       <c r="L78" s="33"/>
     </row>
-    <row r="79" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="B79" s="66" t="s">
+    <row r="79" outlineLevel="1">
+      <c r="A79" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="B79" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="67"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
       <c r="F79" s="39"/>
@@ -5059,14 +4702,14 @@
       <c r="K79" s="39"/>
       <c r="L79" s="39"/>
     </row>
-    <row r="80" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="B80" s="66" t="s">
+    <row r="80" outlineLevel="1">
+      <c r="A80" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B80" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="67"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
       <c r="F80" s="39"/>
@@ -5077,14 +4720,14 @@
       <c r="K80" s="39"/>
       <c r="L80" s="39"/>
     </row>
-    <row r="81" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="65" t="s">
-        <v>442</v>
-      </c>
-      <c r="B81" s="66" t="s">
+    <row r="81" outlineLevel="1">
+      <c r="A81" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B81" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="67"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
       <c r="F81" s="39"/>
@@ -5095,14 +4738,14 @@
       <c r="K81" s="39"/>
       <c r="L81" s="39"/>
     </row>
-    <row r="82" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="65" t="s">
-        <v>443</v>
-      </c>
-      <c r="B82" s="66" t="s">
+    <row r="82" outlineLevel="1">
+      <c r="A82" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="B82" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="67"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
@@ -5113,14 +4756,14 @@
       <c r="K82" s="39"/>
       <c r="L82" s="39"/>
     </row>
-    <row r="83" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="B83" s="66" t="s">
+    <row r="83" outlineLevel="1">
+      <c r="A83" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B83" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="67"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
@@ -5131,14 +4774,14 @@
       <c r="K83" s="39"/>
       <c r="L83" s="39"/>
     </row>
-    <row r="84" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="B84" s="66" t="s">
+    <row r="84" outlineLevel="1">
+      <c r="A84" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="67"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
       <c r="F84" s="39"/>
@@ -5149,14 +4792,14 @@
       <c r="K84" s="39"/>
       <c r="L84" s="39"/>
     </row>
-    <row r="85" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="65" t="s">
-        <v>446</v>
-      </c>
-      <c r="B85" s="66" t="s">
+    <row r="85" outlineLevel="1">
+      <c r="A85" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="B85" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="67"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
@@ -5167,14 +4810,14 @@
       <c r="K85" s="39"/>
       <c r="L85" s="39"/>
     </row>
-    <row r="86" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="B86" s="66" t="s">
+    <row r="86" outlineLevel="1">
+      <c r="A86" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="67"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
@@ -5185,179 +4828,179 @@
       <c r="K86" s="39"/>
       <c r="L86" s="39"/>
     </row>
-    <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" outlineLevel="1">
+      <c r="A88" s="40" t="s">
         <v>448</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="40" t="s">
-        <v>449</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C88" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D88" s="33" t="s">
         <v>450</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>451</v>
       </c>
       <c r="E88" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G88" s="33"/>
       <c r="H88" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="53"/>
       <c r="L88" s="53"/>
     </row>
-    <row r="89" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" outlineLevel="1">
       <c r="A89" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C89" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>455</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>456</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="G89" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="H89" s="27" t="s">
         <v>458</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>459</v>
       </c>
       <c r="I89" s="33"/>
       <c r="J89" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="K89" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="K89" s="31" t="s">
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" outlineLevel="1">
+      <c r="A90" s="40" t="s">
         <v>461</v>
-      </c>
-      <c r="L89" s="26"/>
-    </row>
-    <row r="90" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="40" t="s">
-        <v>462</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C90" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>463</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>464</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="G90" s="33" t="s">
         <v>465</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>466</v>
       </c>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
       <c r="J90" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K90" s="53"/>
       <c r="L90" s="53"/>
     </row>
-    <row r="91" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" outlineLevel="1">
       <c r="A91" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>469</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>470</v>
       </c>
       <c r="E91" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F91" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="G91" s="33" t="s">
         <v>471</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>472</v>
       </c>
       <c r="H91" s="33"/>
       <c r="I91" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="J91" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="J91" s="31" t="s">
+      <c r="K91" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="K91" s="31" t="s">
+      <c r="L91" s="26"/>
+    </row>
+    <row r="92" outlineLevel="1">
+      <c r="A92" s="40" t="s">
         <v>475</v>
-      </c>
-      <c r="L91" s="26"/>
-    </row>
-    <row r="92" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="40" t="s">
-        <v>476</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
@@ -5369,15 +5012,15 @@
       <c r="K92" s="53"/>
       <c r="L92" s="53"/>
     </row>
-    <row r="93" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" outlineLevel="1">
       <c r="A93" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="B93" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="C93" s="9" t="s">
         <v>479</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>480</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
@@ -5389,100 +5032,112 @@
       <c r="K93" s="53"/>
       <c r="L93" s="53"/>
     </row>
-    <row r="94" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" outlineLevel="1">
       <c r="A94" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B94" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="C94" s="64"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="53"/>
+      <c r="D94" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>483</v>
+      </c>
       <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="H94" s="33" t="s">
+        <v>484</v>
+      </c>
       <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
+      <c r="J94" s="30" t="s">
+        <v>485</v>
+      </c>
       <c r="K94" s="53"/>
       <c r="L94" s="53"/>
     </row>
-    <row r="95" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" outlineLevel="1">
       <c r="A95" s="40" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="33" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="30" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K95" s="35" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L95" s="33"/>
     </row>
-    <row r="96" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" outlineLevel="1">
       <c r="A96" s="40" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="I96" s="35" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K96" s="35" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L96" s="53"/>
     </row>
-    <row r="97" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" outlineLevel="1">
       <c r="A97" s="40" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="C97" s="64"/>
+        <v>505</v>
+      </c>
+      <c r="C97" s="63"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
       <c r="F97" s="53"/>
@@ -5493,17 +5148,17 @@
       <c r="K97" s="53"/>
       <c r="L97" s="53"/>
     </row>
-    <row r="98" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" outlineLevel="1">
       <c r="A98" s="40" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B98" s="33"/>
-      <c r="C98" s="64"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="33"/>
       <c r="E98" s="33"/>
       <c r="F98" s="53"/>
       <c r="G98" s="33" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -5511,17 +5166,17 @@
       <c r="K98" s="53"/>
       <c r="L98" s="53"/>
     </row>
-    <row r="99" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="99" outlineLevel="1">
       <c r="A99" s="40" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B99" s="33"/>
-      <c r="C99" s="64"/>
+      <c r="C99" s="63"/>
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
       <c r="F99" s="53"/>
       <c r="G99" s="33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
@@ -5529,12 +5184,12 @@
       <c r="K99" s="53"/>
       <c r="L99" s="53"/>
     </row>
-    <row r="100" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" outlineLevel="1">
       <c r="A100" s="40" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B100" s="33"/>
-      <c r="C100" s="64"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="33"/>
       <c r="E100" s="33"/>
       <c r="F100" s="53"/>
@@ -5545,12 +5200,12 @@
       <c r="K100" s="53"/>
       <c r="L100" s="53"/>
     </row>
-    <row r="101" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" outlineLevel="1">
       <c r="A101" s="40" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B101" s="33"/>
-      <c r="C101" s="64"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
       <c r="F101" s="53"/>
@@ -5561,12 +5216,12 @@
       <c r="K101" s="53"/>
       <c r="L101" s="53"/>
     </row>
-    <row r="102" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" outlineLevel="1">
       <c r="A102" s="40" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B102" s="33"/>
-      <c r="C102" s="64"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="33"/>
       <c r="E102" s="33"/>
       <c r="F102" s="53"/>
@@ -5577,19 +5232,19 @@
       <c r="K102" s="53"/>
       <c r="L102" s="53"/>
     </row>
-    <row r="103" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" outlineLevel="1">
       <c r="A103" s="40" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B103" s="33"/>
       <c r="C103" s="9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
       <c r="F103" s="53"/>
       <c r="G103" s="33" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -5597,17 +5252,17 @@
       <c r="K103" s="53"/>
       <c r="L103" s="53"/>
     </row>
-    <row r="104" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" outlineLevel="1">
       <c r="A104" s="40" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B104" s="33"/>
-      <c r="C104" s="64"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="33"/>
       <c r="E104" s="33"/>
       <c r="F104" s="53"/>
       <c r="G104" s="33" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -5615,95 +5270,95 @@
       <c r="K104" s="53"/>
       <c r="L104" s="53"/>
     </row>
-    <row r="105" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" outlineLevel="1">
       <c r="A105" s="40" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B105" s="33"/>
       <c r="C105" s="9" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
       <c r="F105" s="53"/>
       <c r="G105" s="33"/>
       <c r="H105" s="33" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I105" s="33"/>
       <c r="J105" s="33"/>
       <c r="K105" s="53"/>
       <c r="L105" s="53"/>
     </row>
-    <row r="106" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" outlineLevel="1">
       <c r="A107" s="40" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="33" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
       <c r="K107" s="33"/>
       <c r="L107" s="33"/>
     </row>
-    <row r="108" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" outlineLevel="1">
       <c r="A108" s="40" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
@@ -5715,14 +5370,14 @@
       <c r="K108" s="33"/>
       <c r="L108" s="33"/>
     </row>
-    <row r="109" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" outlineLevel="1">
       <c r="A109" s="40" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C109" s="64"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
       <c r="F109" s="33"/>
@@ -5733,12 +5388,12 @@
       <c r="K109" s="33"/>
       <c r="L109" s="33"/>
     </row>
-    <row r="110" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" outlineLevel="1">
       <c r="A110" s="40" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B110" s="33"/>
-      <c r="C110" s="64"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
       <c r="F110" s="33"/>
@@ -5749,13 +5404,13 @@
       <c r="K110" s="33"/>
       <c r="L110" s="33"/>
     </row>
-    <row r="111" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="111" outlineLevel="1">
       <c r="A111" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="B111" s="68"/>
+        <v>528</v>
+      </c>
+      <c r="B111" s="67"/>
       <c r="C111" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
@@ -5767,12 +5422,12 @@
       <c r="K111" s="33"/>
       <c r="L111" s="33"/>
     </row>
-    <row r="112" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" outlineLevel="1">
       <c r="A112" s="40" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B112" s="33"/>
-      <c r="C112" s="64"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
       <c r="F112" s="33"/>
@@ -5783,12 +5438,12 @@
       <c r="K112" s="33"/>
       <c r="L112" s="33"/>
     </row>
-    <row r="113" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" outlineLevel="1">
       <c r="A113" s="40" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B113" s="33"/>
-      <c r="C113" s="64"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
       <c r="F113" s="33"/>
@@ -5799,32 +5454,32 @@
       <c r="K113" s="33"/>
       <c r="L113" s="33"/>
     </row>
-    <row r="114" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="114" outlineLevel="1">
       <c r="A114" s="40" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B114" s="33"/>
       <c r="C114" s="9" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
       <c r="H114" s="33" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
       <c r="K114" s="33"/>
       <c r="L114" s="33"/>
     </row>
-    <row r="115" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" outlineLevel="1">
       <c r="A115" s="40" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B115" s="33"/>
-      <c r="C115" s="64"/>
+      <c r="C115" s="63"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
@@ -5835,12 +5490,12 @@
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
     </row>
-    <row r="116" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" outlineLevel="1">
       <c r="A116" s="40" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B116" s="33"/>
-      <c r="C116" s="64"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
       <c r="F116" s="33"/>
@@ -5851,12 +5506,12 @@
       <c r="K116" s="33"/>
       <c r="L116" s="33"/>
     </row>
-    <row r="117" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" outlineLevel="1">
       <c r="A117" s="40" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B117" s="33"/>
-      <c r="C117" s="64"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
       <c r="F117" s="33"/>
@@ -5867,38 +5522,38 @@
       <c r="K117" s="33"/>
       <c r="L117" s="33"/>
     </row>
-    <row r="118" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="69" t="s">
-        <v>534</v>
-      </c>
-      <c r="B118" s="70"/>
-      <c r="C118" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D118" s="59" t="s">
-        <v>536</v>
-      </c>
-      <c r="E118" s="61" t="s">
-        <v>537</v>
-      </c>
-      <c r="F118" s="60" t="s">
+    <row r="118" outlineLevel="1">
+      <c r="A118" s="68" t="s">
         <v>538</v>
       </c>
-      <c r="G118" s="60" t="s">
+      <c r="B118" s="69"/>
+      <c r="C118" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
-      <c r="K118" s="70"/>
-      <c r="L118" s="70"/>
-    </row>
-    <row r="119" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D118" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="E118" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="G118" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
+      <c r="J118" s="69"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="69"/>
+    </row>
+    <row r="119" outlineLevel="1">
       <c r="A119" s="40" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B119" s="33"/>
-      <c r="C119" s="64"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
@@ -5909,12 +5564,12 @@
       <c r="K119" s="33"/>
       <c r="L119" s="33"/>
     </row>
-    <row r="120" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" outlineLevel="1">
       <c r="A120" s="40" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B120" s="33"/>
-      <c r="C120" s="64"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
@@ -5925,143 +5580,143 @@
       <c r="K120" s="33"/>
       <c r="L120" s="33"/>
     </row>
-    <row r="121" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" outlineLevel="1">
       <c r="A122" s="40" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E122" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H122" s="33"/>
       <c r="I122" s="30"/>
       <c r="J122" s="30" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K122" s="33"/>
       <c r="L122" s="33"/>
     </row>
-    <row r="123" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" outlineLevel="1">
       <c r="A123" s="40" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E123" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="H123" s="72" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="H123" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="I123" s="30"/>
       <c r="J123" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="K123" s="72"/>
-      <c r="L123" s="72"/>
-    </row>
-    <row r="124" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="K123" s="71"/>
+      <c r="L123" s="71"/>
+    </row>
+    <row r="124" outlineLevel="1">
       <c r="A124" s="40" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>192</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E124" s="27" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="53"/>
       <c r="G124" s="27" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I124" s="33"/>
       <c r="J124" s="33"/>
       <c r="K124" s="33"/>
       <c r="L124" s="33"/>
     </row>
-    <row r="125" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" outlineLevel="1">
       <c r="A125" s="40" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
@@ -6073,15 +5728,15 @@
       <c r="K125" s="33"/>
       <c r="L125" s="33"/>
     </row>
-    <row r="126" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="126" outlineLevel="1">
       <c r="A126" s="40" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
@@ -6093,14 +5748,14 @@
       <c r="K126" s="33"/>
       <c r="L126" s="33"/>
     </row>
-    <row r="127" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="127" outlineLevel="1">
       <c r="A127" s="40" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C127" s="64"/>
+        <v>568</v>
+      </c>
+      <c r="C127" s="63"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
       <c r="F127" s="53"/>
@@ -6111,14 +5766,14 @@
       <c r="K127" s="33"/>
       <c r="L127" s="33"/>
     </row>
-    <row r="128" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="128" outlineLevel="1">
       <c r="A128" s="40" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C128" s="64"/>
+        <v>568</v>
+      </c>
+      <c r="C128" s="63"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
       <c r="F128" s="53"/>
@@ -6129,14 +5784,14 @@
       <c r="K128" s="33"/>
       <c r="L128" s="33"/>
     </row>
-    <row r="129" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="129" outlineLevel="1">
       <c r="A129" s="40" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="C129" s="64"/>
+        <v>571</v>
+      </c>
+      <c r="C129" s="63"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
       <c r="F129" s="53"/>
@@ -6147,13 +5802,13 @@
       <c r="K129" s="33"/>
       <c r="L129" s="33"/>
     </row>
-    <row r="130" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="130" outlineLevel="1">
       <c r="A130" s="40" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B130" s="33"/>
       <c r="C130" s="9" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
@@ -6165,49 +5820,49 @@
       <c r="K130" s="33"/>
       <c r="L130" s="33"/>
     </row>
-    <row r="131" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="131" outlineLevel="1">
       <c r="A131" s="40" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B131" s="33"/>
       <c r="C131" s="9" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E131" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H131" s="34" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="I131" s="33"/>
       <c r="J131" s="31" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K131" s="33"/>
       <c r="L131" s="33"/>
     </row>
-    <row r="132" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="132" outlineLevel="1">
       <c r="A132" s="40" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B132" s="33"/>
       <c r="C132" s="9" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
       <c r="F132" s="53"/>
       <c r="G132" s="33" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H132" s="33"/>
       <c r="I132" s="33"/>
@@ -6215,25 +5870,25 @@
       <c r="K132" s="33"/>
       <c r="L132" s="33"/>
     </row>
-    <row r="133" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="133" outlineLevel="1">
       <c r="A133" s="40" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B133" s="33"/>
       <c r="C133" s="9" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E133" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H133" s="33"/>
       <c r="I133" s="33"/>
@@ -6241,12 +5896,12 @@
       <c r="K133" s="33"/>
       <c r="L133" s="33"/>
     </row>
-    <row r="134" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="134" outlineLevel="1">
       <c r="A134" s="40" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B134" s="33"/>
-      <c r="C134" s="64"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
       <c r="F134" s="53"/>
@@ -6257,124 +5912,124 @@
       <c r="K134" s="33"/>
       <c r="L134" s="33"/>
     </row>
-    <row r="135" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="135" outlineLevel="1">
       <c r="A135" s="40" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B135" s="33"/>
       <c r="C135" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D135" s="36" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="D135" s="34" t="s">
+        <v>592</v>
       </c>
       <c r="E135" s="33"/>
-      <c r="F135" s="73" t="s">
-        <v>590</v>
-      </c>
-      <c r="G135" s="73" t="s">
-        <v>591</v>
-      </c>
-      <c r="H135" s="72"/>
-      <c r="I135" s="72"/>
-      <c r="J135" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="K135" s="72"/>
-      <c r="L135" s="72"/>
-    </row>
-    <row r="136" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F135" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="H135" s="71"/>
+      <c r="I135" s="71"/>
+      <c r="J135" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="K135" s="71"/>
+      <c r="L135" s="71"/>
+    </row>
+    <row r="136">
       <c r="A136" s="5" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" outlineLevel="1">
       <c r="A137" s="40" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E137" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F137" s="27" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G137" s="33"/>
-      <c r="H137" s="72" t="s">
-        <v>598</v>
-      </c>
-      <c r="I137" s="72"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="72"/>
-      <c r="L137" s="72"/>
-    </row>
-    <row r="138" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="71" t="s">
+        <v>601</v>
+      </c>
+      <c r="I137" s="71"/>
+      <c r="J137" s="71"/>
+      <c r="K137" s="71"/>
+      <c r="L137" s="71"/>
+    </row>
+    <row r="138" outlineLevel="1">
       <c r="A138" s="40" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B138" s="33"/>
       <c r="C138" s="9" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
       <c r="F138" s="53"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I138" s="33"/>
       <c r="J138" s="33"/>
       <c r="K138" s="33"/>
       <c r="L138" s="33"/>
     </row>
-    <row r="139" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="139" outlineLevel="1">
       <c r="A139" s="40" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B139" s="33"/>
-      <c r="C139" s="64"/>
+      <c r="C139" s="63"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
       <c r="F139" s="53"/>
@@ -6385,25 +6040,25 @@
       <c r="K139" s="33"/>
       <c r="L139" s="33"/>
     </row>
-    <row r="140" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="140" outlineLevel="1">
       <c r="A140" s="40" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B140" s="33"/>
       <c r="C140" s="9" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E140" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="33" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="33"/>
@@ -6411,12 +6066,12 @@
       <c r="K140" s="33"/>
       <c r="L140" s="33"/>
     </row>
-    <row r="141" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="141" outlineLevel="1">
       <c r="A141" s="40" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B141" s="33"/>
-      <c r="C141" s="64"/>
+      <c r="C141" s="63"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
       <c r="F141" s="53"/>
@@ -6427,12 +6082,12 @@
       <c r="K141" s="33"/>
       <c r="L141" s="33"/>
     </row>
-    <row r="142" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="142" outlineLevel="1">
       <c r="A142" s="40" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B142" s="33"/>
-      <c r="C142" s="64"/>
+      <c r="C142" s="63"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
       <c r="F142" s="53"/>
@@ -6443,12 +6098,12 @@
       <c r="K142" s="33"/>
       <c r="L142" s="33"/>
     </row>
-    <row r="143" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="143" outlineLevel="1">
       <c r="A143" s="40" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B143" s="33"/>
-      <c r="C143" s="64"/>
+      <c r="C143" s="63"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
       <c r="F143" s="53"/>
@@ -6459,91 +6114,91 @@
       <c r="K143" s="33"/>
       <c r="L143" s="33"/>
     </row>
-    <row r="144" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="145" outlineLevel="1">
       <c r="A145" s="40" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="9" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="33"/>
       <c r="G145" s="8"/>
       <c r="H145" s="33" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="I145" s="33"/>
       <c r="J145" s="33"/>
       <c r="K145" s="33"/>
       <c r="L145" s="33"/>
     </row>
-    <row r="146" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" outlineLevel="1">
       <c r="A146" s="40" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B146" s="33"/>
       <c r="C146" s="9" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I146" s="33"/>
       <c r="J146" s="33"/>
       <c r="K146" s="33"/>
       <c r="L146" s="33"/>
     </row>
-    <row r="147" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="147" outlineLevel="1">
       <c r="A147" s="40" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -6555,13 +6210,13 @@
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
     </row>
-    <row r="148" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="148" outlineLevel="1">
       <c r="A148" s="40" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="9" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -6573,13 +6228,13 @@
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
     </row>
-    <row r="149" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="149" outlineLevel="1">
       <c r="A149" s="40" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="9" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6591,12 +6246,12 @@
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
     </row>
-    <row r="150" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="150" outlineLevel="1">
       <c r="A150" s="40" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B150" s="8"/>
-      <c r="C150" s="64"/>
+      <c r="C150" s="63"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
@@ -6607,138 +6262,138 @@
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
     </row>
-    <row r="151" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="75" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="152" outlineLevel="1">
+      <c r="A152" s="72" t="s">
+        <v>628</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="33" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H152" s="41" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I152" s="41"/>
       <c r="J152" s="41"/>
       <c r="K152" s="41"/>
       <c r="L152" s="41"/>
     </row>
-    <row r="153" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="75" t="s">
-        <v>630</v>
+    <row r="153" outlineLevel="1">
+      <c r="A153" s="72" t="s">
+        <v>633</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C153" s="64"/>
+      <c r="C153" s="63"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="33" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="41" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I153" s="41"/>
       <c r="J153" s="41"/>
       <c r="K153" s="41"/>
       <c r="L153" s="41"/>
     </row>
-    <row r="154" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="154" outlineLevel="1">
       <c r="A154" s="40" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C154" s="64"/>
+      <c r="C154" s="63"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="53"/>
       <c r="G154" s="8"/>
       <c r="H154" s="33" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="I154" s="33"/>
       <c r="J154" s="33"/>
       <c r="K154" s="33"/>
       <c r="L154" s="33"/>
     </row>
-    <row r="155" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="155" outlineLevel="1">
       <c r="A155" s="40" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B155" s="8"/>
-      <c r="C155" s="64"/>
+      <c r="C155" s="63"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="53"/>
       <c r="G155" s="8"/>
       <c r="H155" s="33" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I155" s="33"/>
       <c r="J155" s="33"/>
       <c r="K155" s="33"/>
       <c r="L155" s="33"/>
     </row>
-    <row r="156" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="156" outlineLevel="1">
       <c r="A156" s="40" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B156" s="8"/>
-      <c r="C156" s="64"/>
+      <c r="C156" s="63"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="53"/>
@@ -6749,30 +6404,30 @@
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
     </row>
-    <row r="157" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="157" outlineLevel="1">
       <c r="A157" s="40" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B157" s="8"/>
-      <c r="C157" s="64"/>
+      <c r="C157" s="63"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="53"/>
       <c r="G157" s="8"/>
       <c r="H157" s="33" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I157" s="33"/>
       <c r="J157" s="33"/>
       <c r="K157" s="33"/>
       <c r="L157" s="33"/>
     </row>
-    <row r="158" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="158" outlineLevel="1">
       <c r="A158" s="40" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B158" s="8"/>
-      <c r="C158" s="64"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="53"/>
@@ -6783,70 +6438,70 @@
       <c r="K158" s="33"/>
       <c r="L158" s="33"/>
     </row>
-    <row r="159" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="160" outlineLevel="1">
       <c r="A160" s="40" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C160" s="64"/>
+      <c r="C160" s="63"/>
       <c r="D160" s="53"/>
       <c r="E160" s="53"/>
       <c r="F160" s="33"/>
       <c r="G160" s="53"/>
       <c r="H160" s="33" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I160" s="33"/>
       <c r="J160" s="33"/>
       <c r="K160" s="33"/>
       <c r="L160" s="33"/>
     </row>
-    <row r="161" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="161" outlineLevel="1">
       <c r="A161" s="40" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B161" s="53"/>
-      <c r="C161" s="64"/>
+      <c r="C161" s="63"/>
       <c r="D161" s="53"/>
       <c r="E161" s="53"/>
       <c r="F161" s="53"/>
@@ -6857,17 +6512,17 @@
       <c r="K161" s="53"/>
       <c r="L161" s="53"/>
     </row>
-    <row r="162" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="162" outlineLevel="1">
       <c r="A162" s="40" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B162" s="53"/>
-      <c r="C162" s="64"/>
+      <c r="C162" s="63"/>
       <c r="D162" s="53"/>
       <c r="E162" s="53"/>
       <c r="F162" s="53"/>
       <c r="G162" s="33" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H162" s="53"/>
       <c r="I162" s="53"/>
@@ -6875,12 +6530,12 @@
       <c r="K162" s="53"/>
       <c r="L162" s="53"/>
     </row>
-    <row r="163" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="163" outlineLevel="1">
       <c r="A163" s="40" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B163" s="53"/>
-      <c r="C163" s="64"/>
+      <c r="C163" s="63"/>
       <c r="D163" s="53"/>
       <c r="E163" s="53"/>
       <c r="F163" s="53"/>
@@ -6891,12 +6546,12 @@
       <c r="K163" s="53"/>
       <c r="L163" s="53"/>
     </row>
-    <row r="164" spans="1:12" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="164" outlineLevel="1">
       <c r="A164" s="40" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B164" s="53"/>
-      <c r="C164" s="64"/>
+      <c r="C164" s="63"/>
       <c r="D164" s="53"/>
       <c r="E164" s="53"/>
       <c r="F164" s="53"/>
@@ -6909,184 +6564,185 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K21" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J22" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I23" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J24" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K24" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I25" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J26" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I27" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J27" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K27" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J28" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K28" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I29" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J29" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K29" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I30" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J30" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K30" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I33" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K33" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I34" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K34" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I35" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J35" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K35" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I36" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J36" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I37" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K37" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I38" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I39" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K39" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I40" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K40" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I41" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J41" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="I42" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J42" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K42" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K45" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K47" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="L47" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I48" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J48" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="I49" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J49" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="K49" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="L49" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="I50" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J50" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K50" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="L50" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="I51" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J51" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="K51" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="I52" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J52" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I53" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J53" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="K53" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="I54" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J54" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="K54" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="I55" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J55" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="K55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I56" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J56" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="I57" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="K57" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="I58" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="J58" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="K58" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I60" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J60" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="K60" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J61" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="K61" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="I63" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J63" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="K63" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="J64" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="K64" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="I65" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J65" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="I66" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="J66" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="I67" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="I68" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="J68" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I69" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J69" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="I70" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J70" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="K70" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="L70" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="J72" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="K72" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="I74" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="J74" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="K74" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="J75" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="K75" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="I76" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="J76" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="I77" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J77" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="K77" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="J89" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="K89" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="J90" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="I91" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="J91" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="K91" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="J95" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="K95" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="I96" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="J96" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="K96" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D118" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="J122" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="J123" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="J131" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="J135" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink r:id="rId2" ref="K3"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="J4"/>
+    <hyperlink r:id="rId5" ref="K4"/>
+    <hyperlink r:id="rId6" ref="I5"/>
+    <hyperlink r:id="rId7" ref="J5"/>
+    <hyperlink r:id="rId8" ref="K5"/>
+    <hyperlink r:id="rId9" ref="I7"/>
+    <hyperlink r:id="rId10" ref="J7"/>
+    <hyperlink r:id="rId11" ref="K7"/>
+    <hyperlink r:id="rId12" ref="I8"/>
+    <hyperlink r:id="rId13" ref="J8"/>
+    <hyperlink r:id="rId14" ref="K8"/>
+    <hyperlink r:id="rId15" ref="I9"/>
+    <hyperlink r:id="rId16" ref="K9"/>
+    <hyperlink r:id="rId17" ref="I10"/>
+    <hyperlink r:id="rId18" ref="J10"/>
+    <hyperlink r:id="rId19" ref="K10"/>
+    <hyperlink r:id="rId20" ref="J11"/>
+    <hyperlink r:id="rId21" ref="K11"/>
+    <hyperlink r:id="rId22" ref="K12"/>
+    <hyperlink r:id="rId23" ref="K13"/>
+    <hyperlink r:id="rId24" ref="I14"/>
+    <hyperlink r:id="rId25" ref="J14"/>
+    <hyperlink r:id="rId26" ref="K14"/>
+    <hyperlink r:id="rId27" ref="J15"/>
+    <hyperlink r:id="rId28" ref="K15"/>
+    <hyperlink r:id="rId29" ref="I16"/>
+    <hyperlink r:id="rId30" ref="J16"/>
+    <hyperlink r:id="rId31" ref="K16"/>
+    <hyperlink r:id="rId32" ref="I18"/>
+    <hyperlink r:id="rId33" ref="J18"/>
+    <hyperlink r:id="rId34" ref="K18"/>
+    <hyperlink r:id="rId35" ref="I19"/>
+    <hyperlink r:id="rId36" ref="J19"/>
+    <hyperlink r:id="rId37" ref="K19"/>
+    <hyperlink r:id="rId38" ref="I20"/>
+    <hyperlink r:id="rId39" ref="K20"/>
+    <hyperlink r:id="rId40" ref="I21"/>
+    <hyperlink r:id="rId41" ref="J21"/>
+    <hyperlink r:id="rId42" ref="K21"/>
+    <hyperlink r:id="rId43" ref="I22"/>
+    <hyperlink r:id="rId44" ref="J22"/>
+    <hyperlink r:id="rId45" ref="K22"/>
+    <hyperlink r:id="rId46" ref="I23"/>
+    <hyperlink r:id="rId47" ref="J23"/>
+    <hyperlink r:id="rId48" ref="K23"/>
+    <hyperlink r:id="rId49" ref="I24"/>
+    <hyperlink r:id="rId50" ref="J24"/>
+    <hyperlink r:id="rId51" ref="K24"/>
+    <hyperlink r:id="rId52" ref="I25"/>
+    <hyperlink r:id="rId53" ref="K25"/>
+    <hyperlink r:id="rId54" ref="J26"/>
+    <hyperlink r:id="rId55" ref="I27"/>
+    <hyperlink r:id="rId56" ref="J27"/>
+    <hyperlink r:id="rId57" ref="K27"/>
+    <hyperlink r:id="rId58" ref="J28"/>
+    <hyperlink r:id="rId59" ref="K28"/>
+    <hyperlink r:id="rId60" ref="I29"/>
+    <hyperlink r:id="rId61" ref="J29"/>
+    <hyperlink r:id="rId62" ref="K29"/>
+    <hyperlink r:id="rId63" ref="I30"/>
+    <hyperlink r:id="rId64" ref="J30"/>
+    <hyperlink r:id="rId65" ref="K30"/>
+    <hyperlink r:id="rId66" ref="I33"/>
+    <hyperlink r:id="rId67" ref="K33"/>
+    <hyperlink r:id="rId68" ref="I34"/>
+    <hyperlink r:id="rId69" ref="K34"/>
+    <hyperlink r:id="rId70" ref="I35"/>
+    <hyperlink r:id="rId71" ref="J35"/>
+    <hyperlink r:id="rId72" ref="K35"/>
+    <hyperlink r:id="rId73" ref="I36"/>
+    <hyperlink r:id="rId74" ref="J36"/>
+    <hyperlink r:id="rId75" ref="K36"/>
+    <hyperlink r:id="rId76" ref="I37"/>
+    <hyperlink r:id="rId77" ref="J37"/>
+    <hyperlink r:id="rId78" ref="K37"/>
+    <hyperlink r:id="rId79" ref="I38"/>
+    <hyperlink r:id="rId80" ref="K38"/>
+    <hyperlink r:id="rId81" ref="I39"/>
+    <hyperlink r:id="rId82" ref="K39"/>
+    <hyperlink r:id="rId83" ref="I40"/>
+    <hyperlink r:id="rId84" ref="K40"/>
+    <hyperlink r:id="rId85" ref="I41"/>
+    <hyperlink r:id="rId86" ref="J41"/>
+    <hyperlink r:id="rId87" ref="K41"/>
+    <hyperlink r:id="rId88" ref="I42"/>
+    <hyperlink r:id="rId89" ref="J42"/>
+    <hyperlink r:id="rId90" ref="K42"/>
+    <hyperlink r:id="rId91" ref="K45"/>
+    <hyperlink r:id="rId92" ref="I47"/>
+    <hyperlink r:id="rId93" ref="J47"/>
+    <hyperlink r:id="rId94" ref="K47"/>
+    <hyperlink r:id="rId95" ref="L47"/>
+    <hyperlink r:id="rId96" ref="I48"/>
+    <hyperlink r:id="rId97" ref="J48"/>
+    <hyperlink r:id="rId98" ref="I49"/>
+    <hyperlink r:id="rId99" ref="J49"/>
+    <hyperlink r:id="rId100" ref="K49"/>
+    <hyperlink r:id="rId101" ref="L49"/>
+    <hyperlink r:id="rId102" ref="I50"/>
+    <hyperlink r:id="rId103" ref="J50"/>
+    <hyperlink r:id="rId104" ref="K50"/>
+    <hyperlink r:id="rId105" ref="L50"/>
+    <hyperlink r:id="rId106" ref="I51"/>
+    <hyperlink r:id="rId107" ref="J51"/>
+    <hyperlink r:id="rId108" ref="K51"/>
+    <hyperlink r:id="rId109" ref="I52"/>
+    <hyperlink r:id="rId110" ref="J52"/>
+    <hyperlink r:id="rId111" ref="I53"/>
+    <hyperlink r:id="rId112" ref="J53"/>
+    <hyperlink r:id="rId113" ref="K53"/>
+    <hyperlink r:id="rId114" ref="I54"/>
+    <hyperlink r:id="rId115" ref="J54"/>
+    <hyperlink r:id="rId116" ref="K54"/>
+    <hyperlink r:id="rId117" ref="I55"/>
+    <hyperlink r:id="rId118" ref="J55"/>
+    <hyperlink r:id="rId119" ref="K55"/>
+    <hyperlink r:id="rId120" ref="I56"/>
+    <hyperlink r:id="rId121" ref="J56"/>
+    <hyperlink r:id="rId122" ref="I57"/>
+    <hyperlink r:id="rId123" ref="K57"/>
+    <hyperlink r:id="rId124" ref="I58"/>
+    <hyperlink r:id="rId125" ref="J58"/>
+    <hyperlink r:id="rId126" ref="K58"/>
+    <hyperlink r:id="rId127" ref="I60"/>
+    <hyperlink r:id="rId128" ref="J60"/>
+    <hyperlink r:id="rId129" ref="K60"/>
+    <hyperlink r:id="rId130" ref="J61"/>
+    <hyperlink r:id="rId131" ref="K61"/>
+    <hyperlink r:id="rId132" ref="I63"/>
+    <hyperlink r:id="rId133" ref="J63"/>
+    <hyperlink r:id="rId134" ref="K63"/>
+    <hyperlink r:id="rId135" ref="J64"/>
+    <hyperlink r:id="rId136" ref="K64"/>
+    <hyperlink r:id="rId137" ref="I65"/>
+    <hyperlink r:id="rId138" ref="J65"/>
+    <hyperlink r:id="rId139" ref="I66"/>
+    <hyperlink r:id="rId140" ref="J66"/>
+    <hyperlink r:id="rId141" ref="I67"/>
+    <hyperlink r:id="rId142" ref="I68"/>
+    <hyperlink r:id="rId143" ref="J68"/>
+    <hyperlink r:id="rId144" ref="I69"/>
+    <hyperlink r:id="rId145" ref="J69"/>
+    <hyperlink r:id="rId146" ref="I70"/>
+    <hyperlink r:id="rId147" ref="J70"/>
+    <hyperlink r:id="rId148" ref="K70"/>
+    <hyperlink r:id="rId149" ref="L70"/>
+    <hyperlink r:id="rId150" ref="J72"/>
+    <hyperlink r:id="rId151" ref="K72"/>
+    <hyperlink r:id="rId152" ref="I74"/>
+    <hyperlink r:id="rId153" ref="J74"/>
+    <hyperlink r:id="rId154" ref="K74"/>
+    <hyperlink r:id="rId155" ref="J75"/>
+    <hyperlink r:id="rId156" ref="K75"/>
+    <hyperlink r:id="rId157" ref="I76"/>
+    <hyperlink r:id="rId158" ref="J76"/>
+    <hyperlink r:id="rId159" ref="I77"/>
+    <hyperlink r:id="rId160" ref="J77"/>
+    <hyperlink r:id="rId161" ref="K77"/>
+    <hyperlink r:id="rId162" ref="J89"/>
+    <hyperlink r:id="rId163" ref="K89"/>
+    <hyperlink r:id="rId164" ref="J90"/>
+    <hyperlink r:id="rId165" ref="I91"/>
+    <hyperlink r:id="rId166" ref="J91"/>
+    <hyperlink r:id="rId167" ref="K91"/>
+    <hyperlink r:id="rId168" ref="J94"/>
+    <hyperlink r:id="rId169" ref="J95"/>
+    <hyperlink r:id="rId170" ref="K95"/>
+    <hyperlink r:id="rId171" ref="I96"/>
+    <hyperlink r:id="rId172" ref="J96"/>
+    <hyperlink r:id="rId173" ref="K96"/>
+    <hyperlink r:id="rId174" ref="D118"/>
+    <hyperlink r:id="rId175" ref="J122"/>
+    <hyperlink r:id="rId176" ref="J123"/>
+    <hyperlink r:id="rId177" ref="J131"/>
+    <hyperlink r:id="rId178" ref="J135"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId177"/>
+  <drawing r:id="rId179"/>
+  <legacyDrawing r:id="rId180"/>
 </worksheet>
 </file>